--- a/exps/Standard_Label/SMOTE/feature/y_train.xlsx
+++ b/exps/Standard_Label/SMOTE/feature/y_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A657"/>
+  <dimension ref="A1:A1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,6 +3720,1736 @@
         <v>0</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
